--- a/output/below_50/tRNA-Leu-TAG-3-1.xlsx
+++ b/output/below_50/tRNA-Leu-TAG-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>chr16</t>
   </si>
@@ -156,87 +156,6 @@
   </si>
   <si>
     <t>2.23236E+11</t>
-  </si>
-  <si>
-    <t>22207410</t>
-  </si>
-  <si>
-    <t>22207433</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>22207430</t>
-  </si>
-  <si>
-    <t>CCGTGCTGCCGCTTCCTCCC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 38%, Moreno-Mateos: 89%</t>
-  </si>
-  <si>
-    <t>1.2366E+11</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>22207413</t>
-  </si>
-  <si>
-    <t>CCCGGGAGGAAGCGGCAGCA</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 53%, Moreno-Mateos: 71%</t>
-  </si>
-  <si>
-    <t>1.46736E+11</t>
-  </si>
-  <si>
-    <t>22207436</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>TGCTGCCGCTTCCTCCCGGG</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 66%, Moreno-Mateos: 82%</t>
-  </si>
-  <si>
-    <t>3.79822E+11</t>
   </si>
 </sst>
 </file>
@@ -281,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -523,183 +442,6 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
